--- a/biology/Médecine/Hôpital_général_de_Douala/Hôpital_général_de_Douala.xlsx
+++ b/biology/Médecine/Hôpital_général_de_Douala/Hôpital_général_de_Douala.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_g%C3%A9n%C3%A9ral_de_Douala</t>
+          <t>Hôpital_général_de_Douala</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Hôpital Général de Douala, en abrégé HGD, est un hôpital de la ville de Douala, au Cameroun, créé en 1992. Il sert de centre d'enseignement.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_g%C3%A9n%C3%A9ral_de_Douala</t>
+          <t>Hôpital_général_de_Douala</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hôpital est créé en 1992[1]. Il est situé dans le quartier Beedi[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital est créé en 1992. Il est situé dans le quartier Beedi.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_g%C3%A9n%C3%A9ral_de_Douala</t>
+          <t>Hôpital_général_de_Douala</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,13 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Personnel
-Plateau technique
-L'hôpital compte dans son plateau technique des oxymètres de pouls, des respirateurs et des moniteurs multi-paramétriques[3].
-Équipement
-L'hôpital compte 630 lits[2].
-Heure de visite
-Les heures de visite sont regroupées par jour de lundi à samedi (10h-12h et 14h-16h) et le dimanche 12h à 14h[4].
+          <t>Plateau technique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital compte dans son plateau technique des oxymètres de pouls, des respirateurs et des moniteurs multi-paramétriques.
 </t>
         </is>
       </c>
@@ -562,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_g%C3%A9n%C3%A9ral_de_Douala</t>
+          <t>Hôpital_général_de_Douala</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,13 +591,89 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Équipement</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital compte 630 lits.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hôpital_général_de_Douala</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_g%C3%A9n%C3%A9ral_de_Douala</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Heure de visite</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les heures de visite sont regroupées par jour de lundi à samedi (10h-12h et 14h-16h) et le dimanche 12h à 14h.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hôpital_général_de_Douala</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_g%C3%A9n%C3%A9ral_de_Douala</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Risques sanitaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hôpital accueille des missions d'intervention sanitaires en partenariat avec d'autres institutions. Depuis 2012, il reçoit des éditions de la mission de chirurgie cardiaque où plusieurs patients sont soignés[5].
-Avec le COVID-19, en 2020, il a renforcé son plateau technique par des oxymètres de pouls, des respirateurs et des moniteurs multi-paramétriques[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital accueille des missions d'intervention sanitaires en partenariat avec d'autres institutions. Depuis 2012, il reçoit des éditions de la mission de chirurgie cardiaque où plusieurs patients sont soignés.
+Avec le COVID-19, en 2020, il a renforcé son plateau technique par des oxymètres de pouls, des respirateurs et des moniteurs multi-paramétriques.
 </t>
         </is>
       </c>
